--- a/input/Дорж_АН.xlsx
+++ b/input/Дорж_АН.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3303ABAB-5BFC-0C45-91A2-E21CCCDC38A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13D994F-A578-4F93-BF08-59774462DA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -141,13 +141,25 @@
   </si>
   <si>
     <t>УБ,Хан-Уул, 14-р хороо, Барилга 1-р гудамж, 15 байр, 70 тоот</t>
+  </si>
+  <si>
+    <t>уо66060606</t>
+  </si>
+  <si>
+    <t>Од</t>
+  </si>
+  <si>
+    <t>Мичид</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 15-р хороо, 19 хороолол, сугуудын гудамж, 247 байр, 247 тоот</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -488,23 +500,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.96484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.80859375" customWidth="1"/>
-    <col min="4" max="4" width="13.75390625" customWidth="1"/>
-    <col min="5" max="5" width="13.34765625" customWidth="1"/>
-    <col min="6" max="6" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.00390625" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="35.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -550,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="35.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -573,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="35.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -596,7 +609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="35.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -619,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="46.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="46.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -642,7 +655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="35.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -665,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="35.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -686,6 +699,29 @@
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
